--- a/project planning 1a.xlsx
+++ b/project planning 1a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionchina-my.sharepoint.com/personal/zeng12875_gtiit_edu_cn/Documents/学习/大三下/Project in Design for Manufacturing_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionchina-my.sharepoint.com/personal/zeng12875_gtiit_edu_cn/Documents/学习/大三下/Project in Design for Manufacturing_/Project-in-Design-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{51D2F74D-112F-4F66-BA06-B994E6F19FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F89E92-556D-3B4E-9518-89315E8BFCDC}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{51D2F74D-112F-4F66-BA06-B994E6F19FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4790D548-BCDA-6A43-9386-CDD9A773A9F1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32140" windowHeight="16720" xr2:uid="{EB78C577-821B-402B-B723-C2FBA10A35DA}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,7 +313,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,128 +613,6 @@
         <a:xfrm rot="5400000">
           <a:off x="7999167" y="4619207"/>
           <a:ext cx="896825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E71224">
-            <a:alpha val="75000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="18000">
-          <a:solidFill>
-            <a:srgbClr val="E71224"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2082</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Connector 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81B9144-089E-4F7F-B5D4-C938E380D9ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14525625" y="5145520"/>
-          <a:ext cx="11607" cy="1769630"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E71224">
-            <a:alpha val="75000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="18000">
-          <a:solidFill>
-            <a:srgbClr val="E71224"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2752</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2752</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B875E10-5D89-4F71-B17B-4C3F1FCBF4D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="13132486" y="6066205"/>
-          <a:ext cx="372431" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1224,19 +1102,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB3FE-E144-4DA2-9DD1-EC4BBD348D9E}">
   <dimension ref="A4:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="165" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="35" width="8.7109375" style="1"/>
+    <col min="3" max="35" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" ht="26.1">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="2:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="13"/>
@@ -1252,8 +1130,8 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="6" spans="2:18" ht="18.95">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="2:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13"/>
@@ -1269,7 +1147,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
@@ -1279,23 +1157,23 @@
       <c r="G8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="15" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1339,32 +1217,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1372,48 +1250,48 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R34" s="8"/>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>

--- a/project planning 1a.xlsx
+++ b/project planning 1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionchina-my.sharepoint.com/personal/zeng12875_gtiit_edu_cn/Documents/学习/大三下/Project in Design for Manufacturing_/Project-in-Design-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{51D2F74D-112F-4F66-BA06-B994E6F19FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4790D548-BCDA-6A43-9386-CDD9A773A9F1}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{51D2F74D-112F-4F66-BA06-B994E6F19FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B7367E-9B1F-B647-B6F2-5CEA773E2F1A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32140" windowHeight="16720" xr2:uid="{EB78C577-821B-402B-B723-C2FBA10A35DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <r>
       <t xml:space="preserve">034371 Project in design for manufacturing  </t>
@@ -109,9 +109,6 @@
     <t>20-24</t>
   </si>
   <si>
-    <t>27-31</t>
-  </si>
-  <si>
     <t>3-7</t>
   </si>
   <si>
@@ -158,13 +155,46 @@
   </si>
   <si>
     <t>Critical design review (CDR)</t>
+  </si>
+  <si>
+    <t>blades</t>
+  </si>
+  <si>
+    <t>box (shaft, bearing, housing, lid, screw)</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>guide rail</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>Power screw + Motor</t>
+  </si>
+  <si>
+    <t>elevator(standard part+mounting)</t>
+  </si>
+  <si>
+    <t>27-29</t>
+  </si>
+  <si>
+    <t>30- June 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +225,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +300,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -270,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -291,6 +340,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,6 +365,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,80 +1156,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB3FE-E144-4DA2-9DD1-EC4BBD348D9E}">
-  <dimension ref="A4:AI36"/>
+  <dimension ref="A4:AK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="35" width="8.6640625" style="1"/>
+    <col min="3" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="8.83203125" style="1"/>
+    <col min="18" max="37" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" ht="26" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="2:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="6" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="6" spans="2:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C8" s="12" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="17" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1205,108 +1272,185 @@
         <v>15</v>
       </c>
       <c r="O9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="6" t="s">
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q37" s="24"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="21"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q39" s="24"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" s="21"/>
+      <c r="Q40" s="24"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="24"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="24"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="24"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="23"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="T52" s="8"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project planning 1a.xlsx
+++ b/project planning 1a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionchina-my.sharepoint.com/personal/zeng12875_gtiit_edu_cn/Documents/学习/大三下/Project in Design for Manufacturing_/Project-in-Design-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{51D2F74D-112F-4F66-BA06-B994E6F19FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B7367E-9B1F-B647-B6F2-5CEA773E2F1A}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{51D2F74D-112F-4F66-BA06-B994E6F19FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671ED520-CED7-B341-AE5E-BCE5BBE273D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32140" windowHeight="16720" xr2:uid="{EB78C577-821B-402B-B723-C2FBA10A35DA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{EB78C577-821B-402B-B723-C2FBA10A35DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>FEM</t>
   </si>
   <si>
-    <t>Arm</t>
-  </si>
-  <si>
     <t>guide rail</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">turn table </t>
+  </si>
+  <si>
+    <t>Arm (wielding)</t>
   </si>
 </sst>
 </file>
@@ -343,6 +343,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,9 +368,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB3FE-E144-4DA2-9DD1-EC4BBD348D9E}">
   <dimension ref="A4:AK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,70 +1175,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:20" ht="26" x14ac:dyDescent="0.3">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="6" spans="2:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="12"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
@@ -1272,13 +1272,13 @@
         <v>15</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>16</v>
@@ -1308,14 +1308,14 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,101 +1323,106 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q35" s="24"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="21"/>
-      <c r="Q36" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="O36" s="24"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="Q38" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="O38" s="24"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="Q40" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="O40" s="24"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="15"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="Q41" s="15"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="O42" s="24"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="15"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q43" s="24"/>
+      <c r="Q43" s="15"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="Q44" s="14"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
